--- a/data/america-do-sul/copa-libertadores/2023.xlsx
+++ b/data/america-do-sul/copa-libertadores/2023.xlsx
@@ -617,10 +617,22 @@
       <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Matonte Cabrera A. M. (Uru)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Allianz Parque (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>43713</v>
+      </c>
+      <c r="K3" t="n">
+        <v>40398</v>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>05/10/2023</t>
@@ -749,10 +761,22 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Estadio Alberto J. Armando (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K5" t="n">
+        <v>53615</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>28/09/2023</t>
@@ -807,7 +831,11 @@
       <c r="G6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Herrera D. (Arg)</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>Maracanã (Rio de Janeiro)</t>
@@ -873,8 +901,16 @@
       <c r="G7" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
       <c r="J7" t="n">
         <v>44164</v>
       </c>
@@ -933,10 +969,22 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Allianz Parque (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>43713</v>
+      </c>
+      <c r="K8" t="n">
+        <v>37785</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>30/08/2023</t>
@@ -991,7 +1039,11 @@
       <c r="G9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Matonte Cabrera A. M. (Uru)</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>Estadio Juan Domingo Perón (Avellaneda)</t>
@@ -1201,9 +1253,19 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Estadio Alberto J. Armando (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>57200</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
@@ -1259,10 +1321,22 @@
       <c r="G13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tello F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Estadio Hernán Ramírez Villegas (Pereira)</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>30297</v>
+      </c>
+      <c r="K13" t="n">
+        <v>22789</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>23/08/2023</t>
@@ -1317,10 +1391,22 @@
       <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Herrera D. (Arg)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Estadio Hernando Siles (La Paz)</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>41143</v>
+      </c>
+      <c r="K14" t="n">
+        <v>36054</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>22/08/2023</t>
@@ -1375,9 +1461,19 @@
       <c r="G15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>44164</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
@@ -1433,10 +1529,22 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Estadio Juan Domingo Perón (Avellaneda)</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>61000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>38731</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>10/08/2023</t>
@@ -1491,9 +1599,19 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Rapallini F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Allianz Parque (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>43713</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1623,10 +1741,22 @@
       <c r="G19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Herrera D. (Arg)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Estadio Olímpico Atahualpa (Quito)</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>35258</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16654</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>09/08/2023</t>
@@ -1755,10 +1885,22 @@
       <c r="G21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Matonte Cabrera A. M. (Uru)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Estádio José Pinheiro Borda (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>50600</v>
+      </c>
+      <c r="K21" t="n">
+        <v>50479</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>08/08/2023</t>
@@ -1817,10 +1959,22 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Herrera A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Maracanã (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>78838</v>
+      </c>
+      <c r="K22" t="n">
+        <v>78838</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>08/08/2023</t>
@@ -1875,10 +2029,22 @@
       <c r="G23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Machado B. (Bra)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Estadio Atanasio Girardot (Medellín)</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>40943</v>
+      </c>
+      <c r="K23" t="n">
+        <v>28791</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>03/08/2023</t>
@@ -1933,10 +2099,22 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Herrera D. (Arg)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Maracanã (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>78838</v>
+      </c>
+      <c r="K24" t="n">
+        <v>67066</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>03/08/2023</t>
@@ -2061,10 +2239,22 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Danilo R. Manis (Bra)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Gran Parque Central (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>34000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>13733</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>02/08/2023</t>
@@ -2189,10 +2379,22 @@
       <c r="G28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Guerrero G. (Ecu)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Estadio Hernando Siles (La Paz)</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>41143</v>
+      </c>
+      <c r="K28" t="n">
+        <v>26320</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>01/08/2023</t>
@@ -2247,10 +2449,22 @@
       <c r="G29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Estádio Monumental (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>84567</v>
+      </c>
+      <c r="K29" t="n">
+        <v>64696</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>01/08/2023</t>
@@ -2305,10 +2519,22 @@
       <c r="G30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Maza P. (Chi)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Estádio Diego Armando Maradona (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>26000</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7860</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>01/08/2023</t>
@@ -2501,10 +2727,22 @@
       <c r="G33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Matonte Cabrera A. M. (Uru)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Estadio Alberto J. Armando (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>57200</v>
+      </c>
+      <c r="K33" t="n">
+        <v>40564</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>29/06/2023</t>
@@ -2559,8 +2797,16 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Estádio Monumental David Arellano (Santiago)</t>
+        </is>
+      </c>
       <c r="J34" t="n">
         <v>47347</v>
       </c>
@@ -2621,10 +2867,22 @@
       <c r="G35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Arteaga A. (Ven)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Neo Química Arena (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>49205</v>
+      </c>
+      <c r="K35" t="n">
+        <v>26556</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>28/06/2023</t>
@@ -2679,10 +2937,22 @@
       <c r="G36" t="n">
         <v>0</v>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Rojas A. (Col)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Maracanã (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>78838</v>
+      </c>
+      <c r="K36" t="n">
+        <v>62924</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>28/06/2023</t>
@@ -2805,9 +3075,19 @@
       <c r="G38" t="n">
         <v>0</v>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Estadio Juan Domingo Perón (Avellaneda)</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>61000</v>
+      </c>
       <c r="K38" t="n">
         <v>62924</v>
       </c>
@@ -2865,9 +3145,19 @@
       <c r="G39" t="n">
         <v>1</v>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Tello F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Estádio José Pinheiro Borda (Porto Alegre)</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>50600</v>
+      </c>
       <c r="K39" t="n">
         <v>38567</v>
       </c>
@@ -3203,9 +3493,19 @@
       <c r="G44" t="n">
         <v>0</v>
       </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Tejera G. (Uru)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Estádio Monumental (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>84567</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -3263,7 +3563,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (Ven)</t>
+          <t>Herrera A. (Ven)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3331,9 +3631,19 @@
       <c r="G46" t="n">
         <v>1</v>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Rapallini F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>44164</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
@@ -3669,10 +3979,22 @@
       <c r="G51" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Rojas A. (Col)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Allianz Parque (São Paulo)</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>43713</v>
+      </c>
+      <c r="K51" t="n">
+        <v>33602</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>07/06/2023</t>
@@ -3727,10 +4049,22 @@
       <c r="G52" t="n">
         <v>0</v>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Estádio Monumental (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>84567</v>
+      </c>
+      <c r="K52" t="n">
+        <v>66362</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>07/06/2023</t>
@@ -3785,7 +4119,11 @@
       <c r="G53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Arteaga A. (Ven)</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>Estádio Gonzalo Pozo Ripalda (Quito)</t>
@@ -3991,10 +4329,22 @@
       <c r="G56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Herrera D. (Arg)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Gran Parque Central (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>34000</v>
+      </c>
+      <c r="K56" t="n">
+        <v>29155</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>07/06/2023</t>
@@ -4049,14 +4399,10 @@
       <c r="G57" t="n">
         <v>0</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Garay C. (Chi)</t>
-        </is>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Estadio Hernando Siles (La Paz)</t>
+          <t xml:space="preserve"> (La Paz)</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -4399,11 +4745,7 @@
       <c r="G62" t="n">
         <v>0</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Cajas A. (Ecu)</t>
-        </is>
-      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
           <t>Estadio Monumental de Maturín (Maturín)</t>
@@ -4654,17 +4996,9 @@
         <v>0</v>
       </c>
       <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> (La Paz)</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>41143</v>
-      </c>
-      <c r="K66" t="n">
-        <v>52419</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>25/05/2023</t>
@@ -4719,11 +5053,7 @@
       <c r="G67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>E. Alves Batista (Bra)</t>
-        </is>
-      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
           <t>Estádio Monumental Virgen de Chapi (Arequipa)</t>
@@ -4788,17 +5118,9 @@
         <v>0</v>
       </c>
       <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Estádio Diego Armando Maradona (Buenos Aires)</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>26000</v>
-      </c>
-      <c r="K68" t="n">
-        <v>21830</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>24/05/2023</t>
@@ -4979,10 +5301,22 @@
       <c r="G71" t="n">
         <v>3</v>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Matonte Cabrera A. M. (Uru)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Estádio General Pablo Rojas (Assunção)</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>45000</v>
+      </c>
+      <c r="K71" t="n">
+        <v>23492</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>24/05/2023</t>
@@ -5235,14 +5569,10 @@
       <c r="G75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Gilabert F. (Chi)</t>
-        </is>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Estadio Hernando Siles (La Paz)</t>
+          <t xml:space="preserve"> (La Paz)</t>
         </is>
       </c>
       <c r="J75" t="n">
@@ -5303,10 +5633,22 @@
       <c r="G76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Haro D. (Per)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Estadio Atanasio Girardot (Medellín)</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>40943</v>
+      </c>
+      <c r="K76" t="n">
+        <v>15466</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>23/05/2023</t>
@@ -5361,10 +5703,22 @@
       <c r="G77" t="n">
         <v>1</v>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (Col)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>61927</v>
+      </c>
+      <c r="K77" t="n">
+        <v>39683</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>23/05/2023</t>
@@ -5489,7 +5843,11 @@
       <c r="G79" t="n">
         <v>1</v>
       </c>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>R. Abatti Abel (Bra)</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
           <t>Estadio Hernán Ramírez Villegas (Pereira)</t>
@@ -5555,9 +5913,19 @@
       <c r="G80" t="n">
         <v>2</v>
       </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Ospina J. (Col)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Estadio Defensores del Chaco (Assunção)</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>44164</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
@@ -5613,9 +5981,19 @@
       <c r="G81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Vargas G. (Bol)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Estadio Presbítero Bartolomé Grella (Paraná)</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>23500</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -5673,7 +6051,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Valenzuela J. (Ven)</t>
+          <t xml:space="preserve"> (Ven)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5741,10 +6119,22 @@
       <c r="G83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Garay C. (Chi)</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Estadio Atanasio Girardot (Medellín)</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>40943</v>
+      </c>
+      <c r="K83" t="n">
+        <v>18051</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>03/05/2023</t>
@@ -5997,9 +6387,19 @@
       <c r="G87" t="n">
         <v>4</v>
       </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Estádio General Pablo Rojas (Assunção)</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>45000</v>
+      </c>
       <c r="K87" t="n">
         <v>32630</v>
       </c>
@@ -6057,8 +6457,16 @@
       <c r="G88" t="n">
         <v>2</v>
       </c>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Tello F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Estádio José Pinheiro Borda (Porto Alegre)</t>
+        </is>
+      </c>
       <c r="J88" t="n">
         <v>50600</v>
       </c>
@@ -6189,9 +6597,19 @@
       <c r="G90" t="n">
         <v>2</v>
       </c>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Anderson Daronco (Bra)</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Estadio Atanasio Girardot (Medellín)</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>40943</v>
+      </c>
       <c r="K90" t="n">
         <v>25623</v>
       </c>
@@ -6251,8 +6669,12 @@
       </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>49205</v>
+      </c>
+      <c r="K91" t="n">
+        <v>39984</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>02/05/2023</t>
@@ -6377,19 +6799,9 @@
       <c r="G93" t="n">
         <v>2</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Mendez Chavez I. N. (Bol)</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Estádio Belvedere (Montevidéu)</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>10000</v>
-      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>3134</v>
       </c>
@@ -6449,7 +6861,9 @@
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>12000</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
@@ -6573,9 +6987,19 @@
       <c r="G96" t="n">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Estádio Metropolitano Roberto Meléndez (Barranquilla)</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>46788</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -6767,9 +7191,19 @@
       <c r="G99" t="n">
         <v>1</v>
       </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Ortega K. (Per)</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Estádio Banco Pichincha (Guayaquil)</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>59283</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
@@ -6825,7 +7259,11 @@
       <c r="G100" t="n">
         <v>0</v>
       </c>
-      <c r="H100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Anderson Daronco (Bra)</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
           <t>Estádio Monumental David Arellano (Santiago)</t>
@@ -6889,10 +7327,14 @@
       <c r="G101" t="n">
         <v>1</v>
       </c>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (São Paulo)</t>
+          <t>Neo Química Arena (São Paulo)</t>
         </is>
       </c>
       <c r="J101" t="n">
@@ -7225,19 +7667,9 @@
       <c r="G106" t="n">
         <v>1</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Echavarria P. (Arg)</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Ligga Arena (Curitiba)</t>
-        </is>
-      </c>
-      <c r="J106" t="n">
-        <v>42372</v>
-      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
@@ -7429,9 +7861,19 @@
       <c r="G109" t="n">
         <v>0</v>
       </c>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Ortega C. (Col)</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Maracanã (Rio de Janeiro)</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>78838</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
@@ -7623,9 +8065,19 @@
       <c r="G112" t="n">
         <v>0</v>
       </c>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Estadio Monumental de Maturín (Maturín)</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>51796</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
@@ -7739,9 +8191,19 @@
       <c r="G114" t="n">
         <v>3</v>
       </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Rojas A. (Col)</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Estadio Centenario (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>60235</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
@@ -7797,9 +8259,19 @@
       <c r="G115" t="n">
         <v>1</v>
       </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Raphael Claus (Bra)</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Estadio Hernán Ramírez Villegas (Pereira)</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>30297</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
@@ -7923,9 +8395,19 @@
       <c r="G117" t="n">
         <v>3</v>
       </c>
-      <c r="H117" t="inlineStr"/>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Estádio Alberto Gallardo (Lima)</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>11600</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
@@ -7981,19 +8463,9 @@
       <c r="G118" t="n">
         <v>1</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Herrera D. (Arg)</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Estádio General Pablo Rojas (Assunção)</t>
-        </is>
-      </c>
-      <c r="J118" t="n">
-        <v>45000</v>
-      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
@@ -8117,9 +8589,19 @@
       <c r="G120" t="n">
         <v>1</v>
       </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Argote J. (Ven)</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Estádio Gonzalo Pozo Ripalda (Quito)</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>18799</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
@@ -8243,9 +8725,19 @@
       <c r="G122" t="n">
         <v>2</v>
       </c>
-      <c r="H122" t="inlineStr"/>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Rapallini F. (Arg)</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico de la UCV (Caracas)</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>24264</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
@@ -8301,7 +8793,11 @@
       <c r="G123" t="n">
         <v>1</v>
       </c>
-      <c r="H123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Tello F. (Arg)</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
           <t>Estadio Atanasio Girardot (Medellín)</t>
@@ -8365,7 +8861,11 @@
       <c r="G124" t="n">
         <v>0</v>
       </c>
-      <c r="H124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Ortega C. (Col)</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr">
         <is>
           <t>Estadio Alejandro Villanueva (Lima)</t>
@@ -8429,9 +8929,19 @@
       <c r="G125" t="n">
         <v>0</v>
       </c>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Haro D. (Per)</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Estádio Diego Armando Maradona (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>26000</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
@@ -8897,22 +9407,10 @@
       <c r="G132" t="n">
         <v>1</v>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Tello F. (Arg)</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>Castelão (Fortaleza)</t>
-        </is>
-      </c>
-      <c r="J132" t="n">
-        <v>60326</v>
-      </c>
-      <c r="K132" t="n">
-        <v>42275</v>
-      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>09/03/2023</t>
@@ -9107,7 +9605,11 @@
       <c r="G135" t="n">
         <v>0</v>
       </c>
-      <c r="H135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Valenzuela J. (Ven)</t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr">
         <is>
           <t>Castelão (Fortaleza)</t>
@@ -9245,7 +9747,9 @@
       </c>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>41143</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
@@ -9301,9 +9805,19 @@
       <c r="G138" t="n">
         <v>1</v>
       </c>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Haro D. (Per)</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Mineirão (Belo Horizonte)</t>
+        </is>
+      </c>
+      <c r="J138" t="n">
+        <v>61927</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -9429,9 +9943,19 @@
       <c r="G140" t="n">
         <v>0</v>
       </c>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Wilton Sampaio (Bra)</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Estádio Tomás Adolfo Duco (Buenos Aires)</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>48314</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -9488,9 +10012,17 @@
         <v>1</v>
       </c>
       <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Estádio Alberto Gallardo (Lima)</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>11600</v>
+      </c>
+      <c r="K141" t="n">
+        <v>17743</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>28/02/2023</t>
@@ -9545,10 +10077,22 @@
       <c r="G142" t="n">
         <v>0</v>
       </c>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>Estádio General Pablo Rojas (Assunção)</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>45000</v>
+      </c>
+      <c r="K142" t="n">
+        <v>17759</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>28/02/2023</t>
@@ -9671,9 +10215,19 @@
       <c r="G144" t="n">
         <v>0</v>
       </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Machado B. (Bra)</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Estádio Rodrigo Paz Delgado (Quito)</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>41575</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -9797,10 +10351,22 @@
       <c r="G146" t="n">
         <v>0</v>
       </c>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Vargas G. (Bol)</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Estádio Olímpico de la UCV (Caracas)</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>24264</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1567</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>22/02/2023</t>
@@ -9855,9 +10421,19 @@
       <c r="G147" t="n">
         <v>0</v>
       </c>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Roldan W. (Col)</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Parque Artigas (Las Piedras)</t>
+        </is>
+      </c>
+      <c r="J147" t="n">
+        <v>25000</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -9981,9 +10557,19 @@
       <c r="G149" t="n">
         <v>1</v>
       </c>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Perez Y. (Arg)</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>Estádio Monumental David Arellano (Santiago)</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>47347</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -10088,7 +10674,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/G4L7PBfM-04q9CXTr.png</t>
+          <t>https://static.flashscore.com/res/image/data/G4L7PBfM-0A6WRcTt.png</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -10175,9 +10761,19 @@
       <c r="G152" t="n">
         <v>1</v>
       </c>
-      <c r="H152" t="inlineStr"/>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Flávio Rodrigues de Souza (Bra)</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Estadio Olímpico Atahualpa (Quito)</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>35258</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -10292,7 +10888,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://static.flashscore.com/res/image/data/G4L7PBfM-04q9CXTr.png</t>
+          <t>https://static.flashscore.com/res/image/data/G4L7PBfM-0A6WRcTt.png</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -10301,9 +10897,19 @@
       <c r="G154" t="n">
         <v>1</v>
       </c>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Wagner do Nascimento (Bra)</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Estadio Centenario (Montevidéu)</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>60235</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -10359,9 +10965,19 @@
       <c r="G155" t="n">
         <v>6</v>
       </c>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Herrera Y. (Ven)</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Estadio Hernando Siles (La Paz)</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>41143</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -10417,9 +11033,19 @@
       <c r="G156" t="n">
         <v>1</v>
       </c>
-      <c r="H156" t="inlineStr"/>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Gamboa N. (Chi)</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>Estádio Huancayo (Huancayo)</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>20000</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
